--- a/utilities/eval_df.xlsx
+++ b/utilities/eval_df.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 8\Tugas Akhir\Kode\qas-with-indonli\utilities\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA9C139-EA41-4343-BA64-DE4F7778A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="5147">
   <si>
     <t>Context</t>
   </si>
@@ -15461,14 +15466,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -15479,28 +15479,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -15790,19 +15799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="1.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15834,7 +15850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -15866,7 +15882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -15898,7 +15914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -15927,7 +15943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -15959,7 +15975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -15988,7 +16004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -16020,7 +16036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -16049,7 +16065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -16081,7 +16097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16110,7 +16126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -16142,7 +16158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -16171,7 +16187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -16203,7 +16219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -16232,7 +16248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -16264,7 +16280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -16293,7 +16309,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -16322,7 +16338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -16354,7 +16370,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -16383,7 +16399,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -16415,7 +16431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -16444,7 +16460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -16476,7 +16492,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -16505,7 +16521,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -16537,7 +16553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -16566,7 +16582,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -16598,7 +16614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -16627,7 +16643,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -16659,7 +16675,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -16688,7 +16704,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>197</v>
       </c>
@@ -16720,7 +16736,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -16752,7 +16768,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -16781,7 +16797,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>218</v>
       </c>
@@ -16813,7 +16829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -16842,7 +16858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>229</v>
       </c>
@@ -16874,7 +16890,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -16903,7 +16919,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>246</v>
       </c>
@@ -16935,7 +16951,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>246</v>
       </c>
@@ -16964,7 +16980,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -16996,7 +17012,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>262</v>
       </c>
@@ -17025,7 +17041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -17057,7 +17073,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>277</v>
       </c>
@@ -17086,7 +17102,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>291</v>
       </c>
@@ -17118,7 +17134,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>291</v>
       </c>
@@ -17147,7 +17163,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>305</v>
       </c>
@@ -17179,7 +17195,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -17208,7 +17224,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>316</v>
       </c>
@@ -17240,7 +17256,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>316</v>
       </c>
@@ -17269,7 +17285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>316</v>
       </c>
@@ -17298,7 +17314,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -17330,7 +17346,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -17359,7 +17375,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>356</v>
       </c>
@@ -17391,7 +17407,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -17423,7 +17439,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -17452,7 +17468,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>376</v>
       </c>
@@ -17484,7 +17500,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>376</v>
       </c>
@@ -17513,7 +17529,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>389</v>
       </c>
@@ -17545,7 +17561,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>389</v>
       </c>
@@ -17577,7 +17593,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>389</v>
       </c>
@@ -17606,7 +17622,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>389</v>
       </c>
@@ -17635,7 +17651,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>409</v>
       </c>
@@ -17667,7 +17683,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -17696,7 +17712,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>409</v>
       </c>
@@ -17728,7 +17744,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>424</v>
       </c>
@@ -17760,7 +17776,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>424</v>
       </c>
@@ -17789,7 +17805,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>439</v>
       </c>
@@ -17821,7 +17837,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>446</v>
       </c>
@@ -17853,7 +17869,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>446</v>
       </c>
@@ -17882,7 +17898,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>457</v>
       </c>
@@ -17914,7 +17930,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>457</v>
       </c>
@@ -17943,7 +17959,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>470</v>
       </c>
@@ -17975,7 +17991,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>470</v>
       </c>
@@ -18004,7 +18020,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>483</v>
       </c>
@@ -18036,7 +18052,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>483</v>
       </c>
@@ -18065,7 +18081,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>494</v>
       </c>
@@ -18097,7 +18113,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>494</v>
       </c>
@@ -18126,7 +18142,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>509</v>
       </c>
@@ -18158,7 +18174,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>509</v>
       </c>
@@ -18187,7 +18203,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>523</v>
       </c>
@@ -18219,7 +18235,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>523</v>
       </c>
@@ -18248,7 +18264,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>537</v>
       </c>
@@ -18280,7 +18296,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>544</v>
       </c>
@@ -18312,7 +18328,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>544</v>
       </c>
@@ -18341,7 +18357,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>558</v>
       </c>
@@ -18373,7 +18389,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>558</v>
       </c>
@@ -18402,7 +18418,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>558</v>
       </c>
@@ -18431,7 +18447,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>558</v>
       </c>
@@ -18460,7 +18476,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>558</v>
       </c>
@@ -18489,7 +18505,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>590</v>
       </c>
@@ -18521,7 +18537,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>590</v>
       </c>
@@ -18550,7 +18566,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>606</v>
       </c>
@@ -18582,7 +18598,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>606</v>
       </c>
@@ -18611,7 +18627,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>620</v>
       </c>
@@ -18643,7 +18659,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>620</v>
       </c>
@@ -18672,7 +18688,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>620</v>
       </c>
@@ -18701,7 +18717,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>620</v>
       </c>
@@ -18730,7 +18746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>647</v>
       </c>
@@ -18762,7 +18778,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>654</v>
       </c>
@@ -18794,7 +18810,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>654</v>
       </c>
@@ -18823,7 +18839,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>654</v>
       </c>
@@ -18852,7 +18868,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>672</v>
       </c>
@@ -18884,7 +18900,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>672</v>
       </c>
@@ -18913,7 +18929,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>683</v>
       </c>
@@ -18945,7 +18961,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>683</v>
       </c>
@@ -18974,7 +18990,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>696</v>
       </c>
@@ -19006,7 +19022,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>696</v>
       </c>
@@ -19035,7 +19051,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>707</v>
       </c>
@@ -19067,7 +19083,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>707</v>
       </c>
@@ -19096,7 +19112,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>721</v>
       </c>
@@ -19128,7 +19144,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>731</v>
       </c>
@@ -19160,7 +19176,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>731</v>
       </c>
@@ -19189,7 +19205,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>745</v>
       </c>
@@ -19221,7 +19237,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>745</v>
       </c>
@@ -19250,7 +19266,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>762</v>
       </c>
@@ -19282,7 +19298,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>762</v>
       </c>
@@ -19311,7 +19327,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>762</v>
       </c>
@@ -19340,7 +19356,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>762</v>
       </c>
@@ -19369,7 +19385,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>791</v>
       </c>
@@ -19401,7 +19417,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>791</v>
       </c>
@@ -19430,7 +19446,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>806</v>
       </c>
@@ -19462,7 +19478,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>806</v>
       </c>
@@ -19491,7 +19507,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>820</v>
       </c>
@@ -19523,7 +19539,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>820</v>
       </c>
@@ -19552,7 +19568,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>820</v>
       </c>
@@ -19581,7 +19597,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>843</v>
       </c>
@@ -19613,7 +19629,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>843</v>
       </c>
@@ -19642,7 +19658,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>857</v>
       </c>
@@ -19674,7 +19690,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>857</v>
       </c>
@@ -19703,7 +19719,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>871</v>
       </c>
@@ -19735,7 +19751,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>871</v>
       </c>
@@ -19764,7 +19780,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>885</v>
       </c>
@@ -19796,7 +19812,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>885</v>
       </c>
@@ -19825,7 +19841,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>885</v>
       </c>
@@ -19854,7 +19870,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>885</v>
       </c>
@@ -19883,7 +19899,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>910</v>
       </c>
@@ -19915,7 +19931,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>910</v>
       </c>
@@ -19944,7 +19960,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>910</v>
       </c>
@@ -19976,7 +19992,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>910</v>
       </c>
@@ -20005,7 +20021,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>929</v>
       </c>
@@ -20037,7 +20053,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>929</v>
       </c>
@@ -20066,7 +20082,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>942</v>
       </c>
@@ -20098,7 +20114,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>942</v>
       </c>
@@ -20127,7 +20143,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>958</v>
       </c>
@@ -20159,7 +20175,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>958</v>
       </c>
@@ -20188,7 +20204,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>958</v>
       </c>
@@ -20220,7 +20236,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>958</v>
       </c>
@@ -20249,7 +20265,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>980</v>
       </c>
@@ -20281,7 +20297,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>980</v>
       </c>
@@ -20310,7 +20326,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>994</v>
       </c>
@@ -20342,7 +20358,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>994</v>
       </c>
@@ -20371,7 +20387,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>994</v>
       </c>
@@ -20400,7 +20416,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>994</v>
       </c>
@@ -20429,7 +20445,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1019</v>
       </c>
@@ -20461,7 +20477,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1019</v>
       </c>
@@ -20490,7 +20506,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1032</v>
       </c>
@@ -20522,7 +20538,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1032</v>
       </c>
@@ -20551,7 +20567,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1032</v>
       </c>
@@ -20580,7 +20596,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1055</v>
       </c>
@@ -20612,7 +20628,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1055</v>
       </c>
@@ -20641,7 +20657,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1073</v>
       </c>
@@ -20673,7 +20689,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1073</v>
       </c>
@@ -20702,7 +20718,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1073</v>
       </c>
@@ -20734,7 +20750,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1073</v>
       </c>
@@ -20763,7 +20779,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1099</v>
       </c>
@@ -20795,7 +20811,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1099</v>
       </c>
@@ -20824,7 +20840,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1110</v>
       </c>
@@ -20856,7 +20872,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1117</v>
       </c>
@@ -20888,7 +20904,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1117</v>
       </c>
@@ -20917,7 +20933,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1129</v>
       </c>
@@ -20949,7 +20965,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1129</v>
       </c>
@@ -20978,7 +20994,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1145</v>
       </c>
@@ -21010,7 +21026,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1145</v>
       </c>
@@ -21039,7 +21055,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1158</v>
       </c>
@@ -21071,7 +21087,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1158</v>
       </c>
@@ -21100,7 +21116,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1173</v>
       </c>
@@ -21132,7 +21148,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1173</v>
       </c>
@@ -21164,7 +21180,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1173</v>
       </c>
@@ -21193,7 +21209,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1173</v>
       </c>
@@ -21222,7 +21238,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1173</v>
       </c>
@@ -21251,7 +21267,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1206</v>
       </c>
@@ -21283,7 +21299,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1206</v>
       </c>
@@ -21312,7 +21328,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1222</v>
       </c>
@@ -21344,7 +21360,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1222</v>
       </c>
@@ -21373,7 +21389,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1222</v>
       </c>
@@ -21405,7 +21421,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1222</v>
       </c>
@@ -21434,7 +21450,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1222</v>
       </c>
@@ -21463,7 +21479,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1255</v>
       </c>
@@ -21495,7 +21511,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1255</v>
       </c>
@@ -21524,7 +21540,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1271</v>
       </c>
@@ -21556,7 +21572,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1271</v>
       </c>
@@ -21585,7 +21601,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1281</v>
       </c>
@@ -21617,7 +21633,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1281</v>
       </c>
@@ -21646,7 +21662,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1292</v>
       </c>
@@ -21678,7 +21694,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1292</v>
       </c>
@@ -21707,7 +21723,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1309</v>
       </c>
@@ -21739,7 +21755,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1309</v>
       </c>
@@ -21768,7 +21784,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1321</v>
       </c>
@@ -21800,7 +21816,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1321</v>
       </c>
@@ -21829,7 +21845,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1335</v>
       </c>
@@ -21861,7 +21877,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1335</v>
       </c>
@@ -21890,7 +21906,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1335</v>
       </c>
@@ -21922,7 +21938,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1335</v>
       </c>
@@ -21951,7 +21967,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1359</v>
       </c>
@@ -21983,7 +21999,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1359</v>
       </c>
@@ -22012,7 +22028,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1372</v>
       </c>
@@ -22044,7 +22060,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1372</v>
       </c>
@@ -22073,7 +22089,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1385</v>
       </c>
@@ -22105,7 +22121,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1385</v>
       </c>
@@ -22134,7 +22150,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1399</v>
       </c>
@@ -22166,7 +22182,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1399</v>
       </c>
@@ -22195,7 +22211,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1413</v>
       </c>
@@ -22227,7 +22243,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1413</v>
       </c>
@@ -22256,7 +22272,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1413</v>
       </c>
@@ -22285,7 +22301,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1413</v>
       </c>
@@ -22314,7 +22330,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1440</v>
       </c>
@@ -22346,7 +22362,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1440</v>
       </c>
@@ -22375,7 +22391,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1440</v>
       </c>
@@ -22404,7 +22420,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1440</v>
       </c>
@@ -22433,7 +22449,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1470</v>
       </c>
@@ -22465,7 +22481,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1470</v>
       </c>
@@ -22494,7 +22510,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1470</v>
       </c>
@@ -22523,7 +22539,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1485</v>
       </c>
@@ -22555,7 +22571,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1485</v>
       </c>
@@ -22584,7 +22600,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1496</v>
       </c>
@@ -22616,7 +22632,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1496</v>
       </c>
@@ -22645,7 +22661,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1496</v>
       </c>
@@ -22674,7 +22690,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1496</v>
       </c>
@@ -22703,7 +22719,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1519</v>
       </c>
@@ -22735,7 +22751,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1519</v>
       </c>
@@ -22764,7 +22780,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1533</v>
       </c>
@@ -22796,7 +22812,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1533</v>
       </c>
@@ -22825,7 +22841,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1545</v>
       </c>
@@ -22857,7 +22873,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1545</v>
       </c>
@@ -22886,7 +22902,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1556</v>
       </c>
@@ -22918,7 +22934,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1556</v>
       </c>
@@ -22947,7 +22963,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1570</v>
       </c>
@@ -22979,7 +22995,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1570</v>
       </c>
@@ -23008,7 +23024,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1584</v>
       </c>
@@ -23040,7 +23056,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1584</v>
       </c>
@@ -23069,7 +23085,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1584</v>
       </c>
@@ -23098,7 +23114,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1584</v>
       </c>
@@ -23127,7 +23143,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1584</v>
       </c>
@@ -23156,7 +23172,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1618</v>
       </c>
@@ -23188,7 +23204,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1618</v>
       </c>
@@ -23217,7 +23233,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1618</v>
       </c>
@@ -23246,7 +23262,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1618</v>
       </c>
@@ -23275,7 +23291,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1618</v>
       </c>
@@ -23304,7 +23320,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1648</v>
       </c>
@@ -23336,7 +23352,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1648</v>
       </c>
@@ -23365,7 +23381,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1665</v>
       </c>
@@ -23397,7 +23413,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1665</v>
       </c>
@@ -23426,7 +23442,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1679</v>
       </c>
@@ -23458,7 +23474,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1679</v>
       </c>
@@ -23487,7 +23503,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1695</v>
       </c>
@@ -23519,7 +23535,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1695</v>
       </c>
@@ -23548,7 +23564,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1695</v>
       </c>
@@ -23580,7 +23596,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1695</v>
       </c>
@@ -23612,7 +23628,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1695</v>
       </c>
@@ -23641,7 +23657,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1695</v>
       </c>
@@ -23670,7 +23686,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1695</v>
       </c>
@@ -23699,7 +23715,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1732</v>
       </c>
@@ -23731,7 +23747,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1732</v>
       </c>
@@ -23760,7 +23776,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1732</v>
       </c>
@@ -23789,7 +23805,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1753</v>
       </c>
@@ -23821,7 +23837,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1753</v>
       </c>
@@ -23850,7 +23866,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1763</v>
       </c>
@@ -23882,7 +23898,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1763</v>
       </c>
@@ -23911,7 +23927,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1763</v>
       </c>
@@ -23940,7 +23956,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1787</v>
       </c>
@@ -23972,7 +23988,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1794</v>
       </c>
@@ -24004,7 +24020,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1801</v>
       </c>
@@ -24036,7 +24052,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1801</v>
       </c>
@@ -24065,7 +24081,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1818</v>
       </c>
@@ -24097,7 +24113,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1818</v>
       </c>
@@ -24126,7 +24142,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1832</v>
       </c>
@@ -24158,7 +24174,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1832</v>
       </c>
@@ -24190,7 +24206,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1832</v>
       </c>
@@ -24219,7 +24235,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1852</v>
       </c>
@@ -24251,7 +24267,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1852</v>
       </c>
@@ -24280,7 +24296,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1866</v>
       </c>
@@ -24312,7 +24328,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1866</v>
       </c>
@@ -24341,7 +24357,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1883</v>
       </c>
@@ -24373,7 +24389,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1883</v>
       </c>
@@ -24402,7 +24418,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1897</v>
       </c>
@@ -24434,7 +24450,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1897</v>
       </c>
@@ -24463,7 +24479,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1908</v>
       </c>
@@ -24495,7 +24511,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1908</v>
       </c>
@@ -24524,7 +24540,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1908</v>
       </c>
@@ -24556,7 +24572,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1908</v>
       </c>
@@ -24585,7 +24601,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1933</v>
       </c>
@@ -24617,7 +24633,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1933</v>
       </c>
@@ -24646,7 +24662,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1947</v>
       </c>
@@ -24678,7 +24694,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1947</v>
       </c>
@@ -24707,7 +24723,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1947</v>
       </c>
@@ -24736,7 +24752,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1947</v>
       </c>
@@ -24765,7 +24781,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1966</v>
       </c>
@@ -24797,7 +24813,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1966</v>
       </c>
@@ -24826,7 +24842,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1978</v>
       </c>
@@ -24858,7 +24874,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1978</v>
       </c>
@@ -24887,7 +24903,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1992</v>
       </c>
@@ -24919,7 +24935,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1992</v>
       </c>
@@ -24948,7 +24964,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>2008</v>
       </c>
@@ -24980,7 +24996,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>2008</v>
       </c>
@@ -25009,7 +25025,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>2008</v>
       </c>
@@ -25038,7 +25054,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>2030</v>
       </c>
@@ -25070,7 +25086,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>2030</v>
       </c>
@@ -25099,7 +25115,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>2044</v>
       </c>
@@ -25131,7 +25147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>2044</v>
       </c>
@@ -25160,7 +25176,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>2055</v>
       </c>
@@ -25192,7 +25208,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>2055</v>
       </c>
@@ -25221,7 +25237,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>2065</v>
       </c>
@@ -25253,7 +25269,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>2070</v>
       </c>
@@ -25285,7 +25301,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>2070</v>
       </c>
@@ -25314,7 +25330,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>2070</v>
       </c>
@@ -25343,7 +25359,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>2088</v>
       </c>
@@ -25375,7 +25391,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>2088</v>
       </c>
@@ -25404,7 +25420,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>2099</v>
       </c>
@@ -25436,7 +25452,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>2099</v>
       </c>
@@ -25465,7 +25481,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>2109</v>
       </c>
@@ -25497,7 +25513,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>2109</v>
       </c>
@@ -25526,7 +25542,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>2127</v>
       </c>
@@ -25558,7 +25574,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>2127</v>
       </c>
@@ -25587,7 +25603,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>2138</v>
       </c>
@@ -25619,7 +25635,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>2138</v>
       </c>
@@ -25648,7 +25664,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>2155</v>
       </c>
@@ -25680,7 +25696,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>2155</v>
       </c>
@@ -25709,7 +25725,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>2168</v>
       </c>
@@ -25741,7 +25757,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>2168</v>
       </c>
@@ -25770,7 +25786,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>2185</v>
       </c>
@@ -25802,7 +25818,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>2185</v>
       </c>
@@ -25831,7 +25847,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>2203</v>
       </c>
@@ -25863,7 +25879,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>2203</v>
       </c>
@@ -25892,7 +25908,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>2217</v>
       </c>
@@ -25924,7 +25940,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>2217</v>
       </c>
@@ -25953,7 +25969,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>2231</v>
       </c>
@@ -25985,7 +26001,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>2231</v>
       </c>
@@ -26014,7 +26030,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>2231</v>
       </c>
@@ -26043,7 +26059,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>2231</v>
       </c>
@@ -26072,7 +26088,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>2256</v>
       </c>
@@ -26104,7 +26120,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>2256</v>
       </c>
@@ -26133,7 +26149,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>2272</v>
       </c>
@@ -26165,7 +26181,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>2272</v>
       </c>
@@ -26194,7 +26210,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>2286</v>
       </c>
@@ -26226,7 +26242,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>2286</v>
       </c>
@@ -26255,7 +26271,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>2297</v>
       </c>
@@ -26287,7 +26303,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>2297</v>
       </c>
@@ -26316,7 +26332,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>2310</v>
       </c>
@@ -26348,7 +26364,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>2310</v>
       </c>
@@ -26377,7 +26393,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>2310</v>
       </c>
@@ -26409,7 +26425,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>2310</v>
       </c>
@@ -26438,7 +26454,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>2333</v>
       </c>
@@ -26470,7 +26486,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>2333</v>
       </c>
@@ -26499,7 +26515,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>2347</v>
       </c>
@@ -26531,7 +26547,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>2357</v>
       </c>
@@ -26563,7 +26579,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>2357</v>
       </c>
@@ -26592,7 +26608,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>2357</v>
       </c>
@@ -26621,7 +26637,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>2377</v>
       </c>
@@ -26653,7 +26669,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>2377</v>
       </c>
@@ -26682,7 +26698,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>2393</v>
       </c>
@@ -26714,7 +26730,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>2393</v>
       </c>
@@ -26746,7 +26762,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>2393</v>
       </c>
@@ -26775,7 +26791,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>2393</v>
       </c>
@@ -26804,7 +26820,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>2414</v>
       </c>
@@ -26836,7 +26852,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>2414</v>
       </c>
@@ -26865,7 +26881,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>2414</v>
       </c>
@@ -26894,7 +26910,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>2432</v>
       </c>
@@ -26926,7 +26942,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>2442</v>
       </c>
@@ -26958,7 +26974,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>2442</v>
       </c>
@@ -26987,7 +27003,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>2456</v>
       </c>
@@ -27019,7 +27035,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>2456</v>
       </c>
@@ -27048,7 +27064,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>2468</v>
       </c>
@@ -27080,7 +27096,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>2468</v>
       </c>
@@ -27109,7 +27125,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>2482</v>
       </c>
@@ -27141,7 +27157,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>2482</v>
       </c>
@@ -27170,7 +27186,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>2499</v>
       </c>
@@ -27202,7 +27218,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>2499</v>
       </c>
@@ -27231,7 +27247,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>2513</v>
       </c>
@@ -27263,7 +27279,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>2513</v>
       </c>
@@ -27292,7 +27308,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>2527</v>
       </c>
@@ -27324,7 +27340,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>2527</v>
       </c>
@@ -27353,7 +27369,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>2542</v>
       </c>
@@ -27385,7 +27401,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>2542</v>
       </c>
@@ -27414,7 +27430,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>2556</v>
       </c>
@@ -27446,7 +27462,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>2556</v>
       </c>
@@ -27475,7 +27491,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>2567</v>
       </c>
@@ -27507,7 +27523,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>2567</v>
       </c>
@@ -27536,7 +27552,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>2580</v>
       </c>
@@ -27568,7 +27584,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>2580</v>
       </c>
@@ -27597,7 +27613,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>2580</v>
       </c>
@@ -27626,7 +27642,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>2580</v>
       </c>
@@ -27655,7 +27671,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>2609</v>
       </c>
@@ -27687,7 +27703,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>2609</v>
       </c>
@@ -27716,7 +27732,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>2621</v>
       </c>
@@ -27748,7 +27764,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>2621</v>
       </c>
@@ -27777,7 +27793,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>2621</v>
       </c>
@@ -27806,7 +27822,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>2639</v>
       </c>
@@ -27838,7 +27854,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>2646</v>
       </c>
@@ -27870,7 +27886,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>2646</v>
       </c>
@@ -27899,7 +27915,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>2660</v>
       </c>
@@ -27931,7 +27947,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>2660</v>
       </c>
@@ -27960,7 +27976,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>2678</v>
       </c>
@@ -27992,7 +28008,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>2678</v>
       </c>
@@ -28021,7 +28037,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>2686</v>
       </c>
@@ -28053,7 +28069,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>2686</v>
       </c>
@@ -28082,7 +28098,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>2702</v>
       </c>
@@ -28114,7 +28130,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>2712</v>
       </c>
@@ -28146,7 +28162,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>2712</v>
       </c>
@@ -28175,7 +28191,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>2726</v>
       </c>
@@ -28207,7 +28223,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>2726</v>
       </c>
@@ -28236,7 +28252,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>2737</v>
       </c>
@@ -28268,7 +28284,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>2737</v>
       </c>
@@ -28297,7 +28313,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>2737</v>
       </c>
@@ -28326,7 +28342,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>2752</v>
       </c>
@@ -28358,7 +28374,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>2752</v>
       </c>
@@ -28387,7 +28403,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>2762</v>
       </c>
@@ -28419,7 +28435,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>2762</v>
       </c>
@@ -28448,7 +28464,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>2773</v>
       </c>
@@ -28480,7 +28496,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>2773</v>
       </c>
@@ -28509,7 +28525,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>2787</v>
       </c>
@@ -28541,7 +28557,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>2787</v>
       </c>
@@ -28570,7 +28586,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>2787</v>
       </c>
@@ -28602,7 +28618,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>2787</v>
       </c>
@@ -28631,7 +28647,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>2816</v>
       </c>
@@ -28663,7 +28679,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>2816</v>
       </c>
@@ -28692,7 +28708,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>2832</v>
       </c>
@@ -28724,7 +28740,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>2832</v>
       </c>
@@ -28753,7 +28769,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>2848</v>
       </c>
@@ -28785,7 +28801,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>2848</v>
       </c>
@@ -28817,7 +28833,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>2848</v>
       </c>
@@ -28846,7 +28862,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>2870</v>
       </c>
@@ -28878,7 +28894,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>2870</v>
       </c>
@@ -28910,7 +28926,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>2870</v>
       </c>
@@ -28939,7 +28955,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>2890</v>
       </c>
@@ -28971,7 +28987,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>2890</v>
       </c>
@@ -29000,7 +29016,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>2901</v>
       </c>
@@ -29032,7 +29048,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>2901</v>
       </c>
@@ -29061,7 +29077,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>2918</v>
       </c>
@@ -29093,7 +29109,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>2918</v>
       </c>
@@ -29122,7 +29138,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>2929</v>
       </c>
@@ -29154,7 +29170,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>2929</v>
       </c>
@@ -29183,7 +29199,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>2944</v>
       </c>
@@ -29215,7 +29231,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>2944</v>
       </c>
@@ -29244,7 +29260,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>2958</v>
       </c>
@@ -29276,7 +29292,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>2958</v>
       </c>
@@ -29305,7 +29321,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>2969</v>
       </c>
@@ -29337,7 +29353,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>2969</v>
       </c>
@@ -29366,7 +29382,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>2982</v>
       </c>
@@ -29398,7 +29414,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>2989</v>
       </c>
@@ -29430,7 +29446,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>2989</v>
       </c>
@@ -29459,7 +29475,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>3006</v>
       </c>
@@ -29491,7 +29507,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>3006</v>
       </c>
@@ -29520,7 +29536,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>3019</v>
       </c>
@@ -29552,7 +29568,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>3019</v>
       </c>
@@ -29581,7 +29597,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>3033</v>
       </c>
@@ -29613,7 +29629,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>3033</v>
       </c>
@@ -29642,7 +29658,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>3047</v>
       </c>
@@ -29674,7 +29690,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>3047</v>
       </c>
@@ -29703,7 +29719,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>3047</v>
       </c>
@@ -29732,7 +29748,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>3047</v>
       </c>
@@ -29761,7 +29777,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>3072</v>
       </c>
@@ -29793,7 +29809,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>3072</v>
       </c>
@@ -29822,7 +29838,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>3087</v>
       </c>
@@ -29854,7 +29870,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>3087</v>
       </c>
@@ -29883,7 +29899,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>3104</v>
       </c>
@@ -29915,7 +29931,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>3104</v>
       </c>
@@ -29944,7 +29960,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>3117</v>
       </c>
@@ -29976,7 +29992,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>3124</v>
       </c>
@@ -30008,7 +30024,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>3124</v>
       </c>
@@ -30037,7 +30053,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>3140</v>
       </c>
@@ -30069,7 +30085,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>3140</v>
       </c>
@@ -30098,7 +30114,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>3154</v>
       </c>
@@ -30130,7 +30146,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>3154</v>
       </c>
@@ -30159,7 +30175,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>3169</v>
       </c>
@@ -30191,7 +30207,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>3169</v>
       </c>
@@ -30220,7 +30236,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>3169</v>
       </c>
@@ -30249,7 +30265,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>3186</v>
       </c>
@@ -30281,7 +30297,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>3186</v>
       </c>
@@ -30310,7 +30326,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>3186</v>
       </c>
@@ -30339,7 +30355,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>3186</v>
       </c>
@@ -30368,7 +30384,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>3208</v>
       </c>
@@ -30400,7 +30416,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>3208</v>
       </c>
@@ -30429,7 +30445,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>3223</v>
       </c>
@@ -30461,7 +30477,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>3223</v>
       </c>
@@ -30490,7 +30506,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>3236</v>
       </c>
@@ -30522,7 +30538,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>3236</v>
       </c>
@@ -30551,7 +30567,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>3250</v>
       </c>
@@ -30583,7 +30599,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>3250</v>
       </c>
@@ -30612,7 +30628,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>3250</v>
       </c>
@@ -30641,7 +30657,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>3267</v>
       </c>
@@ -30673,7 +30689,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>3267</v>
       </c>
@@ -30702,7 +30718,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>3283</v>
       </c>
@@ -30734,7 +30750,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>3283</v>
       </c>
@@ -30763,7 +30779,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>3296</v>
       </c>
@@ -30795,7 +30811,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>3296</v>
       </c>
@@ -30824,7 +30840,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>3310</v>
       </c>
@@ -30856,7 +30872,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>3310</v>
       </c>
@@ -30885,7 +30901,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>3324</v>
       </c>
@@ -30917,7 +30933,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>3324</v>
       </c>
@@ -30946,7 +30962,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>3339</v>
       </c>
@@ -30978,7 +30994,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>3339</v>
       </c>
@@ -31007,7 +31023,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>3339</v>
       </c>
@@ -31036,7 +31052,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>3339</v>
       </c>
@@ -31065,7 +31081,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>3363</v>
       </c>
@@ -31097,7 +31113,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>3363</v>
       </c>
@@ -31126,7 +31142,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>3379</v>
       </c>
@@ -31158,7 +31174,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>3379</v>
       </c>
@@ -31187,7 +31203,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>3392</v>
       </c>
@@ -31219,7 +31235,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>3392</v>
       </c>
@@ -31248,7 +31264,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>3403</v>
       </c>
@@ -31280,7 +31296,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>3403</v>
       </c>
@@ -31309,7 +31325,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>3403</v>
       </c>
@@ -31338,7 +31354,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>3425</v>
       </c>
@@ -31370,7 +31386,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>3425</v>
       </c>
@@ -31399,7 +31415,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>3436</v>
       </c>
@@ -31431,7 +31447,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>3436</v>
       </c>
@@ -31460,7 +31476,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>3449</v>
       </c>
@@ -31492,7 +31508,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>3449</v>
       </c>
@@ -31524,7 +31540,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>3449</v>
       </c>
@@ -31553,7 +31569,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>3449</v>
       </c>
@@ -31582,7 +31598,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>3476</v>
       </c>
@@ -31614,7 +31630,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>3476</v>
       </c>
@@ -31643,7 +31659,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="522" spans="1:10">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>3489</v>
       </c>
@@ -31675,7 +31691,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>3489</v>
       </c>
@@ -31704,7 +31720,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>3502</v>
       </c>
@@ -31736,7 +31752,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>3502</v>
       </c>
@@ -31765,7 +31781,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>3515</v>
       </c>
@@ -31797,7 +31813,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>3515</v>
       </c>
@@ -31826,7 +31842,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>3529</v>
       </c>
@@ -31858,7 +31874,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="529" spans="1:10">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>3529</v>
       </c>
@@ -31887,7 +31903,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="530" spans="1:10">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>3542</v>
       </c>
@@ -31919,7 +31935,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="531" spans="1:10">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>3542</v>
       </c>
@@ -31948,7 +31964,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="532" spans="1:10">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>3554</v>
       </c>
@@ -31980,7 +31996,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="533" spans="1:10">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>3554</v>
       </c>
@@ -32009,7 +32025,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="534" spans="1:10">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>3570</v>
       </c>
@@ -32041,7 +32057,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>3570</v>
       </c>
@@ -32070,7 +32086,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="536" spans="1:10">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>3570</v>
       </c>
@@ -32099,7 +32115,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>3592</v>
       </c>
@@ -32131,7 +32147,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="538" spans="1:10">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>3592</v>
       </c>
@@ -32160,7 +32176,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="539" spans="1:10">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>3608</v>
       </c>
@@ -32192,7 +32208,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>3608</v>
       </c>
@@ -32221,7 +32237,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>3622</v>
       </c>
@@ -32253,7 +32269,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="542" spans="1:10">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>3622</v>
       </c>
@@ -32282,7 +32298,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="543" spans="1:10">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>3636</v>
       </c>
@@ -32314,7 +32330,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="544" spans="1:10">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>3636</v>
       </c>
@@ -32343,7 +32359,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>3650</v>
       </c>
@@ -32375,7 +32391,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>3650</v>
       </c>
@@ -32404,7 +32420,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>3650</v>
       </c>
@@ -32433,7 +32449,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="548" spans="1:10">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>3671</v>
       </c>
@@ -32465,7 +32481,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="549" spans="1:10">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>3671</v>
       </c>
@@ -32494,7 +32510,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="550" spans="1:10">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>3685</v>
       </c>
@@ -32526,7 +32542,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="551" spans="1:10">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>3685</v>
       </c>
@@ -32555,7 +32571,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="552" spans="1:10">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>3700</v>
       </c>
@@ -32587,7 +32603,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="553" spans="1:10">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>3700</v>
       </c>
@@ -32619,7 +32635,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="554" spans="1:10">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>3700</v>
       </c>
@@ -32648,7 +32664,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="555" spans="1:10">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>3723</v>
       </c>
@@ -32680,7 +32696,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="556" spans="1:10">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>3723</v>
       </c>
@@ -32709,7 +32725,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="557" spans="1:10">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>3723</v>
       </c>
@@ -32738,7 +32754,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="558" spans="1:10">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>3744</v>
       </c>
@@ -32770,7 +32786,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="559" spans="1:10">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>3744</v>
       </c>
@@ -32802,7 +32818,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>3744</v>
       </c>
@@ -32834,7 +32850,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>3761</v>
       </c>
@@ -32866,7 +32882,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="562" spans="1:10">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>3761</v>
       </c>
@@ -32895,7 +32911,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>3774</v>
       </c>
@@ -32927,7 +32943,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="564" spans="1:10">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>3774</v>
       </c>
@@ -32956,7 +32972,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>3785</v>
       </c>
@@ -32988,7 +33004,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>3785</v>
       </c>
@@ -33017,7 +33033,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>3796</v>
       </c>
@@ -33049,7 +33065,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>3796</v>
       </c>
@@ -33078,7 +33094,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>3796</v>
       </c>
@@ -33107,7 +33123,7 @@
         <v>3818</v>
       </c>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>3819</v>
       </c>
@@ -33139,7 +33155,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="571" spans="1:10">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>3819</v>
       </c>
@@ -33168,7 +33184,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>3831</v>
       </c>
@@ -33200,7 +33216,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>3838</v>
       </c>
@@ -33232,7 +33248,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>3838</v>
       </c>
@@ -33264,7 +33280,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="575" spans="1:10">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>3838</v>
       </c>
@@ -33293,7 +33309,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>3838</v>
       </c>
@@ -33322,7 +33338,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="577" spans="1:10">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>3857</v>
       </c>
@@ -33354,7 +33370,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="578" spans="1:10">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>3857</v>
       </c>
@@ -33386,7 +33402,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="579" spans="1:10">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>3857</v>
       </c>
@@ -33415,7 +33431,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="580" spans="1:10">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>3874</v>
       </c>
@@ -33447,7 +33463,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="581" spans="1:10">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>3881</v>
       </c>
@@ -33479,7 +33495,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="582" spans="1:10">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>3881</v>
       </c>
@@ -33511,7 +33527,7 @@
         <v>3887</v>
       </c>
     </row>
-    <row r="583" spans="1:10">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>3881</v>
       </c>
@@ -33543,7 +33559,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="584" spans="1:10">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>3881</v>
       </c>
@@ -33572,7 +33588,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="585" spans="1:10">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>3881</v>
       </c>
@@ -33601,7 +33617,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="586" spans="1:10">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>3881</v>
       </c>
@@ -33630,7 +33646,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="587" spans="1:10">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>3881</v>
       </c>
@@ -33659,7 +33675,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="588" spans="1:10">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>3915</v>
       </c>
@@ -33691,7 +33707,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="589" spans="1:10">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>3915</v>
       </c>
@@ -33720,7 +33736,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="590" spans="1:10">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>3928</v>
       </c>
@@ -33752,7 +33768,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="591" spans="1:10">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>3935</v>
       </c>
@@ -33784,7 +33800,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="592" spans="1:10">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>3935</v>
       </c>
@@ -33813,7 +33829,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="593" spans="1:10">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>3946</v>
       </c>
@@ -33845,7 +33861,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="594" spans="1:10">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>3946</v>
       </c>
@@ -33874,7 +33890,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="595" spans="1:10">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>3960</v>
       </c>
@@ -33906,7 +33922,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="596" spans="1:10">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>3960</v>
       </c>
@@ -33935,7 +33951,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="597" spans="1:10">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>3971</v>
       </c>
@@ -33967,7 +33983,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="598" spans="1:10">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>3978</v>
       </c>
@@ -33999,7 +34015,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="599" spans="1:10">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>3978</v>
       </c>
@@ -34028,7 +34044,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="600" spans="1:10">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>3994</v>
       </c>
@@ -34060,7 +34076,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="601" spans="1:10">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>4001</v>
       </c>
@@ -34092,7 +34108,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="602" spans="1:10">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>4008</v>
       </c>
@@ -34124,7 +34140,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="603" spans="1:10">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>4008</v>
       </c>
@@ -34153,7 +34169,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="604" spans="1:10">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>4024</v>
       </c>
@@ -34185,7 +34201,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="605" spans="1:10">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>4024</v>
       </c>
@@ -34214,7 +34230,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="606" spans="1:10">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>4038</v>
       </c>
@@ -34246,7 +34262,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="607" spans="1:10">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>4038</v>
       </c>
@@ -34275,7 +34291,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="608" spans="1:10">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>4053</v>
       </c>
@@ -34307,7 +34323,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="609" spans="1:10">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>4053</v>
       </c>
@@ -34339,7 +34355,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="610" spans="1:10">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>4053</v>
       </c>
@@ -34368,7 +34384,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="611" spans="1:10">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>4053</v>
       </c>
@@ -34397,7 +34413,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="612" spans="1:10">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>4075</v>
       </c>
@@ -34429,7 +34445,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="613" spans="1:10">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>4075</v>
       </c>
@@ -34458,7 +34474,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="614" spans="1:10">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>4089</v>
       </c>
@@ -34490,7 +34506,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="615" spans="1:10">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>4089</v>
       </c>
@@ -34519,7 +34535,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="616" spans="1:10">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>4089</v>
       </c>
@@ -34548,7 +34564,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="617" spans="1:10">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>4109</v>
       </c>
@@ -34580,7 +34596,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="618" spans="1:10">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>4109</v>
       </c>
@@ -34609,7 +34625,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="619" spans="1:10">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>4109</v>
       </c>
@@ -34638,7 +34654,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="620" spans="1:10">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>4133</v>
       </c>
@@ -34670,7 +34686,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="621" spans="1:10">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>4133</v>
       </c>
@@ -34699,7 +34715,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="622" spans="1:10">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>4133</v>
       </c>
@@ -34728,7 +34744,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="623" spans="1:10">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>4153</v>
       </c>
@@ -34760,7 +34776,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="624" spans="1:10">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>4153</v>
       </c>
@@ -34789,7 +34805,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="625" spans="1:10">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>4153</v>
       </c>
@@ -34818,7 +34834,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="626" spans="1:10">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>4153</v>
       </c>
@@ -34850,7 +34866,7 @@
         <v>4177</v>
       </c>
     </row>
-    <row r="627" spans="1:10">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>4153</v>
       </c>
@@ -34879,7 +34895,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="628" spans="1:10">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>4184</v>
       </c>
@@ -34911,7 +34927,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="629" spans="1:10">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>4184</v>
       </c>
@@ -34940,7 +34956,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="630" spans="1:10">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>4184</v>
       </c>
@@ -34969,7 +34985,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="631" spans="1:10">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>4204</v>
       </c>
@@ -35001,7 +35017,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="632" spans="1:10">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>4214</v>
       </c>
@@ -35033,7 +35049,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="633" spans="1:10">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>4221</v>
       </c>
@@ -35065,7 +35081,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="634" spans="1:10">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>4221</v>
       </c>
@@ -35097,7 +35113,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="635" spans="1:10">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>4221</v>
       </c>
@@ -35126,7 +35142,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="636" spans="1:10">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>4239</v>
       </c>
@@ -35158,7 +35174,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="637" spans="1:10">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>4239</v>
       </c>
@@ -35187,7 +35203,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="638" spans="1:10">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>4255</v>
       </c>
@@ -35219,7 +35235,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="639" spans="1:10">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>4255</v>
       </c>
@@ -35248,7 +35264,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="640" spans="1:10">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>4255</v>
       </c>
@@ -35277,7 +35293,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="641" spans="1:10">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>4276</v>
       </c>
@@ -35309,7 +35325,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="642" spans="1:10">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>4285</v>
       </c>
@@ -35341,7 +35357,7 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="643" spans="1:10">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>4285</v>
       </c>
@@ -35370,7 +35386,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="644" spans="1:10">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>4285</v>
       </c>
@@ -35399,7 +35415,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="645" spans="1:10">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>4303</v>
       </c>
@@ -35431,7 +35447,7 @@
         <v>4309</v>
       </c>
     </row>
-    <row r="646" spans="1:10">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>4303</v>
       </c>
@@ -35460,7 +35476,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="647" spans="1:10">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>4314</v>
       </c>
@@ -35492,7 +35508,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="648" spans="1:10">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>4314</v>
       </c>
@@ -35521,7 +35537,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="649" spans="1:10">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>4332</v>
       </c>
@@ -35553,7 +35569,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="650" spans="1:10">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>4338</v>
       </c>
@@ -35585,7 +35601,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="651" spans="1:10">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>4338</v>
       </c>
@@ -35614,7 +35630,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="652" spans="1:10">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>4349</v>
       </c>
@@ -35646,7 +35662,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="653" spans="1:10">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>4356</v>
       </c>
@@ -35678,7 +35694,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="654" spans="1:10">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>4356</v>
       </c>
@@ -35707,7 +35723,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="655" spans="1:10">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>4356</v>
       </c>
@@ -35736,7 +35752,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="656" spans="1:10">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>4356</v>
       </c>
@@ -35765,7 +35781,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="657" spans="1:10">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>4381</v>
       </c>
@@ -35797,7 +35813,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="658" spans="1:10">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>4388</v>
       </c>
@@ -35829,7 +35845,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="659" spans="1:10">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>4398</v>
       </c>
@@ -35861,7 +35877,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="660" spans="1:10">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>4405</v>
       </c>
@@ -35893,7 +35909,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="661" spans="1:10">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>4405</v>
       </c>
@@ -35922,7 +35938,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="662" spans="1:10">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>4421</v>
       </c>
@@ -35954,7 +35970,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="663" spans="1:10">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>4428</v>
       </c>
@@ -35986,7 +36002,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="664" spans="1:10">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>4435</v>
       </c>
@@ -36018,7 +36034,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="665" spans="1:10">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>4435</v>
       </c>
@@ -36047,7 +36063,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="666" spans="1:10">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>4450</v>
       </c>
@@ -36079,7 +36095,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="667" spans="1:10">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>4450</v>
       </c>
@@ -36108,7 +36124,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="668" spans="1:10">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>4461</v>
       </c>
@@ -36140,7 +36156,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="669" spans="1:10">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>4468</v>
       </c>
@@ -36172,7 +36188,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="670" spans="1:10">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>4475</v>
       </c>
@@ -36204,7 +36220,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="671" spans="1:10">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>4482</v>
       </c>
@@ -36236,7 +36252,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="672" spans="1:10">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>4482</v>
       </c>
@@ -36265,7 +36281,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="673" spans="1:10">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>4498</v>
       </c>
@@ -36297,7 +36313,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="674" spans="1:10">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>4505</v>
       </c>
@@ -36329,7 +36345,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="675" spans="1:10">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>4505</v>
       </c>
@@ -36358,7 +36374,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="676" spans="1:10">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>4505</v>
       </c>
@@ -36387,7 +36403,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="677" spans="1:10">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>4525</v>
       </c>
@@ -36419,7 +36435,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="678" spans="1:10">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>4535</v>
       </c>
@@ -36451,7 +36467,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="679" spans="1:10">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>4535</v>
       </c>
@@ -36480,7 +36496,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>4549</v>
       </c>
@@ -36512,7 +36528,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="681" spans="1:10">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>4555</v>
       </c>
@@ -36544,7 +36560,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="682" spans="1:10">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>4555</v>
       </c>
@@ -36573,7 +36589,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="683" spans="1:10">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>4566</v>
       </c>
@@ -36605,7 +36621,7 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="684" spans="1:10">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>4572</v>
       </c>
@@ -36637,7 +36653,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="685" spans="1:10">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>4581</v>
       </c>
@@ -36669,7 +36685,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="686" spans="1:10">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>4581</v>
       </c>
@@ -36698,7 +36714,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="687" spans="1:10">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>4592</v>
       </c>
@@ -36730,7 +36746,7 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="688" spans="1:10">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>4592</v>
       </c>
@@ -36759,7 +36775,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="689" spans="1:10">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>4604</v>
       </c>
@@ -36791,7 +36807,7 @@
         <v>4610</v>
       </c>
     </row>
-    <row r="690" spans="1:10">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>4604</v>
       </c>
@@ -36820,7 +36836,7 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="691" spans="1:10">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>4604</v>
       </c>
@@ -36849,7 +36865,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="692" spans="1:10">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>4626</v>
       </c>
@@ -36881,7 +36897,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="693" spans="1:10">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>4633</v>
       </c>
@@ -36913,7 +36929,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="694" spans="1:10">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>4633</v>
       </c>
@@ -36942,7 +36958,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="695" spans="1:10">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>4646</v>
       </c>
@@ -36974,7 +36990,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="696" spans="1:10">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>4653</v>
       </c>
@@ -37006,7 +37022,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="697" spans="1:10">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>4653</v>
       </c>
@@ -37038,7 +37054,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="698" spans="1:10">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>4653</v>
       </c>
@@ -37067,7 +37083,7 @@
         <v>4674</v>
       </c>
     </row>
-    <row r="699" spans="1:10">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>4675</v>
       </c>
@@ -37099,7 +37115,7 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="700" spans="1:10">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>4675</v>
       </c>
@@ -37128,7 +37144,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="701" spans="1:10">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>4675</v>
       </c>
@@ -37157,7 +37173,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="702" spans="1:10">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>4694</v>
       </c>
@@ -37189,7 +37205,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="703" spans="1:10">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>4694</v>
       </c>
@@ -37218,7 +37234,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="704" spans="1:10">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>4705</v>
       </c>
@@ -37250,7 +37266,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="705" spans="1:10">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>4712</v>
       </c>
@@ -37282,7 +37298,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="706" spans="1:10">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>4712</v>
       </c>
@@ -37314,7 +37330,7 @@
         <v>4728</v>
       </c>
     </row>
-    <row r="707" spans="1:10">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>4712</v>
       </c>
@@ -37343,7 +37359,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="708" spans="1:10">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>4737</v>
       </c>
@@ -37375,7 +37391,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="709" spans="1:10">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>4747</v>
       </c>
@@ -37407,7 +37423,7 @@
         <v>4755</v>
       </c>
     </row>
-    <row r="710" spans="1:10">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>4756</v>
       </c>
@@ -37439,7 +37455,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="711" spans="1:10">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>4756</v>
       </c>
@@ -37468,7 +37484,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="712" spans="1:10">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>4770</v>
       </c>
@@ -37500,7 +37516,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row r="713" spans="1:10">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>4770</v>
       </c>
@@ -37529,7 +37545,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="714" spans="1:10">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>4770</v>
       </c>
@@ -37561,7 +37577,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="715" spans="1:10">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>4770</v>
       </c>
@@ -37590,7 +37606,7 @@
         <v>4786</v>
       </c>
     </row>
-    <row r="716" spans="1:10">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>4787</v>
       </c>
@@ -37622,7 +37638,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="717" spans="1:10">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>4794</v>
       </c>
@@ -37654,7 +37670,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="718" spans="1:10">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>4794</v>
       </c>
@@ -37683,7 +37699,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="719" spans="1:10">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>4806</v>
       </c>
@@ -37715,7 +37731,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="720" spans="1:10">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>4815</v>
       </c>
@@ -37747,7 +37763,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="721" spans="1:10">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>4815</v>
       </c>
@@ -37776,7 +37792,7 @@
         <v>4828</v>
       </c>
     </row>
-    <row r="722" spans="1:10">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>4829</v>
       </c>
@@ -37808,7 +37824,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="723" spans="1:10">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>4829</v>
       </c>
@@ -37837,7 +37853,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="724" spans="1:10">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>4840</v>
       </c>
@@ -37869,7 +37885,7 @@
         <v>4846</v>
       </c>
     </row>
-    <row r="725" spans="1:10">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>4840</v>
       </c>
@@ -37898,7 +37914,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="726" spans="1:10">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>4851</v>
       </c>
@@ -37930,7 +37946,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="727" spans="1:10">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>4861</v>
       </c>
@@ -37962,7 +37978,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="728" spans="1:10">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>4861</v>
       </c>
@@ -37994,7 +38010,7 @@
         <v>4873</v>
       </c>
     </row>
-    <row r="729" spans="1:10">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>4861</v>
       </c>
@@ -38023,7 +38039,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="730" spans="1:10">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>4882</v>
       </c>
@@ -38055,7 +38071,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="731" spans="1:10">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>4882</v>
       </c>
@@ -38084,7 +38100,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="732" spans="1:10">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>4897</v>
       </c>
@@ -38116,7 +38132,7 @@
         <v>4903</v>
       </c>
     </row>
-    <row r="733" spans="1:10">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>4897</v>
       </c>
@@ -38145,7 +38161,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="734" spans="1:10">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>4909</v>
       </c>
@@ -38177,7 +38193,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="735" spans="1:10">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>4909</v>
       </c>
@@ -38206,7 +38222,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="736" spans="1:10">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>4923</v>
       </c>
@@ -38238,7 +38254,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="737" spans="1:10">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>4923</v>
       </c>
@@ -38267,7 +38283,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="738" spans="1:10">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>4937</v>
       </c>
@@ -38299,7 +38315,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="739" spans="1:10">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>4937</v>
       </c>
@@ -38328,7 +38344,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="740" spans="1:10">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>4951</v>
       </c>
@@ -38360,7 +38376,7 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="741" spans="1:10">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>4957</v>
       </c>
@@ -38392,7 +38408,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="742" spans="1:10">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>4967</v>
       </c>
@@ -38424,7 +38440,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row r="743" spans="1:10">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>4976</v>
       </c>
@@ -38456,7 +38472,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="744" spans="1:10">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>4986</v>
       </c>
@@ -38488,7 +38504,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="745" spans="1:10">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>4986</v>
       </c>
@@ -38517,7 +38533,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="746" spans="1:10">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>5003</v>
       </c>
@@ -38549,7 +38565,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="747" spans="1:10">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>5013</v>
       </c>
@@ -38581,7 +38597,7 @@
         <v>5018</v>
       </c>
     </row>
-    <row r="748" spans="1:10">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>5013</v>
       </c>
@@ -38610,7 +38626,7 @@
         <v>5025</v>
       </c>
     </row>
-    <row r="749" spans="1:10">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>5026</v>
       </c>
@@ -38642,7 +38658,7 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="750" spans="1:10">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>5026</v>
       </c>
@@ -38671,7 +38687,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="751" spans="1:10">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>5038</v>
       </c>
@@ -38703,7 +38719,7 @@
         <v>5044</v>
       </c>
     </row>
-    <row r="752" spans="1:10">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>5045</v>
       </c>
@@ -38735,7 +38751,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="753" spans="1:10">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>5045</v>
       </c>
@@ -38767,7 +38783,7 @@
         <v>5057</v>
       </c>
     </row>
-    <row r="754" spans="1:10">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>5058</v>
       </c>
@@ -38799,7 +38815,7 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="755" spans="1:10">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>5058</v>
       </c>
@@ -38828,7 +38844,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="756" spans="1:10">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>5075</v>
       </c>
@@ -38860,7 +38876,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="757" spans="1:10">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>5082</v>
       </c>
@@ -38892,7 +38908,7 @@
         <v>5091</v>
       </c>
     </row>
-    <row r="758" spans="1:10">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>5082</v>
       </c>
@@ -38921,7 +38937,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="759" spans="1:10">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>5100</v>
       </c>
@@ -38953,7 +38969,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="760" spans="1:10">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>5100</v>
       </c>
@@ -38982,7 +38998,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="761" spans="1:10">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>5113</v>
       </c>
@@ -39014,7 +39030,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="762" spans="1:10">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>5119</v>
       </c>
@@ -39046,7 +39062,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="763" spans="1:10">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>5119</v>
       </c>
@@ -39075,7 +39091,7 @@
         <v>5132</v>
       </c>
     </row>
-    <row r="764" spans="1:10">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>5133</v>
       </c>
@@ -39107,7 +39123,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="765" spans="1:10">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>5133</v>
       </c>
@@ -39137,17 +39153,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>